--- a/AggregatedResults.xlsx
+++ b/AggregatedResults.xlsx
@@ -5954,14 +5954,14 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Bratislava</t>
+          <t>bratislava</t>
         </is>
       </c>
       <c r="E94" t="n">
         <v>5</v>
       </c>
       <c r="F94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Pozabúdali</t>
+          <t>pozabúdali</t>
         </is>
       </c>
       <c r="E122" t="n">
@@ -13954,7 +13954,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Mária</t>
+          <t>mária</t>
         </is>
       </c>
       <c r="E230" t="n">
@@ -14018,7 +14018,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>rázusovej-Mkovertákový</t>
+          <t>rázusovej-mkovertákový</t>
         </is>
       </c>
       <c r="H231" t="n">
@@ -14029,7 +14029,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Rázusovej-Martákovej</t>
+          <t>rázusovej-martákovej</t>
         </is>
       </c>
       <c r="K231" t="n">
@@ -14184,7 +14184,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Jozefa</t>
+          <t>jozefa</t>
         </is>
       </c>
       <c r="E234" t="n">
@@ -14259,7 +14259,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Cígera-Hronského</t>
+          <t>cígera-hronského</t>
         </is>
       </c>
       <c r="K235" t="n">
@@ -16613,14 +16613,14 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Rakúsko-uhorsko</t>
+          <t>rakúsko-uhorsko</t>
         </is>
       </c>
       <c r="K275" t="n">
         <v>7</v>
       </c>
       <c r="L275" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M275" t="inlineStr">
         <is>
@@ -16773,18 +16773,18 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>česko-Slovensko</t>
+          <t>česko-slovensko</t>
         </is>
       </c>
       <c r="H278" t="n">
         <v>10</v>
       </c>
       <c r="I278" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Česko-Slovenska</t>
+          <t>česko-slovenska</t>
         </is>
       </c>
       <c r="K278" t="n">
@@ -17934,14 +17934,14 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>Voľky-nevoľky</t>
+          <t>voľky-nevoľky</t>
         </is>
       </c>
       <c r="K298" t="n">
         <v>1</v>
       </c>
       <c r="L298" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M298" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Vianociam</t>
+          <t>vianociam</t>
         </is>
       </c>
       <c r="E329" t="n">
@@ -28821,7 +28821,7 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>Tatár</t>
+          <t>tatár</t>
         </is>
       </c>
       <c r="E483" t="n">
@@ -28843,14 +28843,14 @@
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>Tatári</t>
+          <t>tatári</t>
         </is>
       </c>
       <c r="K483" t="n">
         <v>2</v>
       </c>
       <c r="L483" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M483" t="inlineStr">
         <is>
@@ -35777,14 +35777,14 @@
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>Slovensko</t>
+          <t>slovensko</t>
         </is>
       </c>
       <c r="E601" t="n">
         <v>44</v>
       </c>
       <c r="F601" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G601" t="inlineStr">
         <is>
@@ -38668,14 +38668,14 @@
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>Slovensko</t>
+          <t>slovensko</t>
         </is>
       </c>
       <c r="E650" t="n">
         <v>17</v>
       </c>
       <c r="F650" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G650" t="inlineStr">
         <is>
@@ -40025,14 +40025,14 @@
       </c>
       <c r="D673" t="inlineStr">
         <is>
-          <t>Slovensko</t>
+          <t>slovensko</t>
         </is>
       </c>
       <c r="E673" t="n">
         <v>48</v>
       </c>
       <c r="F673" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G673" t="inlineStr">
         <is>
@@ -40202,14 +40202,14 @@
       </c>
       <c r="D676" t="inlineStr">
         <is>
-          <t>Orava</t>
+          <t>orava</t>
         </is>
       </c>
       <c r="E676" t="n">
         <v>51</v>
       </c>
       <c r="F676" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G676" t="inlineStr">
         <is>
@@ -40320,14 +40320,14 @@
       </c>
       <c r="D678" t="inlineStr">
         <is>
-          <t>Oravský</t>
+          <t>oravský</t>
         </is>
       </c>
       <c r="E678" t="n">
         <v>51</v>
       </c>
       <c r="F678" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G678" t="inlineStr">
         <is>
@@ -40497,14 +40497,14 @@
       </c>
       <c r="D681" t="inlineStr">
         <is>
-          <t>Oravský</t>
+          <t>oravský</t>
         </is>
       </c>
       <c r="E681" t="n">
         <v>51</v>
       </c>
       <c r="F681" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G681" t="inlineStr">
         <is>
@@ -40519,7 +40519,7 @@
       </c>
       <c r="J681" t="inlineStr">
         <is>
-          <t>Oravská</t>
+          <t>oravská</t>
         </is>
       </c>
       <c r="K681" t="n">
@@ -42798,14 +42798,14 @@
       </c>
       <c r="D720" t="inlineStr">
         <is>
-          <t>Oravský</t>
+          <t>oravský</t>
         </is>
       </c>
       <c r="E720" t="n">
         <v>55</v>
       </c>
       <c r="F720" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G720" t="inlineStr">
         <is>
@@ -42820,7 +42820,7 @@
       </c>
       <c r="J720" t="inlineStr">
         <is>
-          <t>Oravským</t>
+          <t>oravským</t>
         </is>
       </c>
       <c r="K720" t="n">
@@ -52179,7 +52179,7 @@
       </c>
       <c r="D879" t="inlineStr">
         <is>
-          <t>Eskimák</t>
+          <t>eskimák</t>
         </is>
       </c>
       <c r="E879" t="n">
@@ -52201,14 +52201,14 @@
       </c>
       <c r="J879" t="inlineStr">
         <is>
-          <t>Eskimáci</t>
+          <t>eskimáci</t>
         </is>
       </c>
       <c r="K879" t="n">
         <v>3</v>
       </c>
       <c r="L879" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M879" t="inlineStr">
         <is>
@@ -53853,14 +53853,14 @@
       </c>
       <c r="J907" t="inlineStr">
         <is>
-          <t>Umiestňovanie</t>
+          <t>umiestňovanie</t>
         </is>
       </c>
       <c r="K907" t="n">
         <v>1</v>
       </c>
       <c r="L907" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M907" t="inlineStr">
         <is>
@@ -55483,14 +55483,14 @@
       </c>
       <c r="D935" t="inlineStr">
         <is>
-          <t>Slovensko</t>
+          <t>slovensko</t>
         </is>
       </c>
       <c r="E935" t="n">
         <v>78</v>
       </c>
       <c r="F935" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G935" t="inlineStr">
         <is>
@@ -61523,7 +61523,7 @@
       </c>
       <c r="J1037" t="inlineStr">
         <is>
-          <t>Zem|zem</t>
+          <t>zem|zem</t>
         </is>
       </c>
       <c r="K1037" t="n">
@@ -67513,7 +67513,7 @@
       </c>
       <c r="D1139" t="inlineStr">
         <is>
-          <t>Sahara</t>
+          <t>sahara</t>
         </is>
       </c>
       <c r="E1139" t="n">
@@ -67535,14 +67535,14 @@
       </c>
       <c r="J1139" t="inlineStr">
         <is>
-          <t>Sahary</t>
+          <t>sahary</t>
         </is>
       </c>
       <c r="K1139" t="n">
         <v>4</v>
       </c>
       <c r="L1139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M1139" t="inlineStr">
         <is>
@@ -69700,7 +69700,7 @@
       </c>
       <c r="J1176" t="inlineStr">
         <is>
-          <t>Klimatológovia</t>
+          <t>klimatológovia</t>
         </is>
       </c>
       <c r="K1176" t="n">
@@ -70846,14 +70846,14 @@
       </c>
       <c r="D1196" t="inlineStr">
         <is>
-          <t>Slovensko</t>
+          <t>slovensko</t>
         </is>
       </c>
       <c r="E1196" t="n">
         <v>99</v>
       </c>
       <c r="F1196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1196" t="inlineStr">
         <is>
@@ -71023,7 +71023,7 @@
       </c>
       <c r="D1199" t="inlineStr">
         <is>
-          <t>Hurbanovo</t>
+          <t>hurbanovo</t>
         </is>
       </c>
       <c r="E1199" t="n">
@@ -71072,7 +71072,11 @@
           <t>.</t>
         </is>
       </c>
-      <c r="B1200" t="inlineStr"/>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
       <c r="C1200" t="n">
         <v>99</v>
       </c>
@@ -71085,7 +71089,7 @@
         <v>99</v>
       </c>
       <c r="F1200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1200" t="inlineStr">
         <is>
@@ -71096,7 +71100,7 @@
         <v>9</v>
       </c>
       <c r="I1200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1200" t="inlineStr"/>
       <c r="K1200" t="inlineStr"/>
@@ -71112,7 +71116,7 @@
         <v>9</v>
       </c>
       <c r="O1200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/AggregatedResults.xlsx
+++ b/AggregatedResults.xlsx
@@ -11439,8 +11439,14 @@
       <c r="C187" t="n">
         <v>0</v>
       </c>
-      <c r="D187" t="inlineStr"/>
-      <c r="E187" t="inlineStr"/>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>výchovno</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>12</v>
+      </c>
       <c r="F187" t="b">
         <v>0</v>
       </c>
@@ -11728,10 +11734,16 @@
       <c r="C192" t="n">
         <v>0</v>
       </c>
-      <c r="D192" t="inlineStr"/>
-      <c r="E192" t="inlineStr"/>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2020/2021</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>12</v>
+      </c>
       <c r="F192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -12076,7 +12088,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F198" t="b">
         <v>1</v>
@@ -12135,7 +12147,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F199" t="b">
         <v>1</v>
@@ -12194,7 +12206,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F200" t="b">
         <v>1</v>
@@ -12253,7 +12265,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F201" t="b">
         <v>1</v>
@@ -13014,7 +13026,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F214" t="b">
         <v>1</v>
@@ -13073,7 +13085,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F215" t="b">
         <v>1</v>
@@ -13132,7 +13144,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F216" t="b">
         <v>1</v>
@@ -13191,7 +13203,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F217" t="b">
         <v>1</v>
@@ -13545,7 +13557,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F223" t="b">
         <v>1</v>
@@ -13604,7 +13616,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F224" t="b">
         <v>1</v>
@@ -13663,7 +13675,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F225" t="b">
         <v>1</v>
@@ -13722,7 +13734,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F226" t="b">
         <v>0</v>
@@ -14011,8 +14023,14 @@
       <c r="C231" t="n">
         <v>0</v>
       </c>
-      <c r="D231" t="inlineStr"/>
-      <c r="E231" t="inlineStr"/>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>rázusovej</t>
+        </is>
+      </c>
+      <c r="E231" t="n">
+        <v>15</v>
+      </c>
       <c r="F231" t="b">
         <v>0</v>
       </c>
@@ -14241,8 +14259,14 @@
       <c r="C235" t="n">
         <v>0</v>
       </c>
-      <c r="D235" t="inlineStr"/>
-      <c r="E235" t="inlineStr"/>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>cíger</t>
+        </is>
+      </c>
+      <c r="E235" t="n">
+        <v>15</v>
+      </c>
       <c r="F235" t="b">
         <v>0</v>
       </c>
@@ -16595,8 +16619,14 @@
       <c r="C275" t="n">
         <v>0</v>
       </c>
-      <c r="D275" t="inlineStr"/>
-      <c r="E275" t="inlineStr"/>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>rakúsko</t>
+        </is>
+      </c>
+      <c r="E275" t="n">
+        <v>17</v>
+      </c>
       <c r="F275" t="b">
         <v>0</v>
       </c>
@@ -16766,8 +16796,14 @@
       <c r="C278" t="n">
         <v>0</v>
       </c>
-      <c r="D278" t="inlineStr"/>
-      <c r="E278" t="inlineStr"/>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>česko</t>
+        </is>
+      </c>
+      <c r="E278" t="n">
+        <v>17</v>
+      </c>
       <c r="F278" t="b">
         <v>0</v>
       </c>
@@ -17515,8 +17551,14 @@
       <c r="C291" t="n">
         <v>0</v>
       </c>
-      <c r="D291" t="inlineStr"/>
-      <c r="E291" t="inlineStr"/>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>km</t>
+        </is>
+      </c>
+      <c r="E291" t="n">
+        <v>17</v>
+      </c>
       <c r="F291" t="b">
         <v>0</v>
       </c>
@@ -17568,7 +17610,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F292" t="b">
         <v>1</v>
@@ -17916,8 +17958,14 @@
       <c r="C298" t="n">
         <v>0</v>
       </c>
-      <c r="D298" t="inlineStr"/>
-      <c r="E298" t="inlineStr"/>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>voľky</t>
+        </is>
+      </c>
+      <c r="E298" t="n">
+        <v>18</v>
+      </c>
       <c r="F298" t="b">
         <v>0</v>
       </c>
@@ -18913,8 +18961,14 @@
       <c r="C315" t="n">
         <v>0</v>
       </c>
-      <c r="D315" t="inlineStr"/>
-      <c r="E315" t="inlineStr"/>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>anglický</t>
+        </is>
+      </c>
+      <c r="E315" t="n">
+        <v>19</v>
+      </c>
       <c r="F315" t="b">
         <v>0</v>
       </c>
@@ -19853,14 +19907,14 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>sekunda</t>
+          <t>s</t>
         </is>
       </c>
       <c r="E331" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F331" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -20388,7 +20442,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F340" t="b">
         <v>1</v>
@@ -20978,7 +21032,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F350" t="b">
         <v>1</v>
@@ -22276,7 +22330,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F372" t="b">
         <v>1</v>
@@ -23161,7 +23215,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F387" t="b">
         <v>1</v>
@@ -23869,7 +23923,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F399" t="b">
         <v>1</v>
@@ -24459,7 +24513,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F409" t="b">
         <v>1</v>
@@ -28353,7 +28407,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F475" t="b">
         <v>1</v>
@@ -29527,7 +29581,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F495" t="b">
         <v>1</v>
@@ -30412,7 +30466,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F510" t="b">
         <v>1</v>
@@ -30589,7 +30643,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F513" t="b">
         <v>1</v>
@@ -32123,7 +32177,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F539" t="b">
         <v>1</v>
@@ -33775,7 +33829,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F567" t="b">
         <v>1</v>
@@ -34483,7 +34537,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F579" t="b">
         <v>1</v>
@@ -35840,7 +35894,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F602" t="b">
         <v>1</v>
@@ -36666,7 +36720,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F616" t="b">
         <v>1</v>
@@ -38141,7 +38195,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F641" t="b">
         <v>1</v>
@@ -38672,7 +38726,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="F650" t="b">
         <v>1</v>
@@ -38731,7 +38785,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F651" t="b">
         <v>1</v>
@@ -39675,7 +39729,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F667" t="b">
         <v>1</v>
@@ -40029,7 +40083,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F673" t="b">
         <v>1</v>
@@ -41504,7 +41558,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F698" t="b">
         <v>1</v>
@@ -46932,7 +46986,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F790" t="b">
         <v>1</v>
@@ -47994,7 +48048,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F808" t="b">
         <v>1</v>
@@ -48466,7 +48520,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="F816" t="b">
         <v>1</v>
@@ -48879,7 +48933,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F823" t="b">
         <v>1</v>
@@ -49469,7 +49523,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F833" t="b">
         <v>1</v>
@@ -51121,7 +51175,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F861" t="b">
         <v>1</v>
@@ -56018,7 +56072,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F944" t="b">
         <v>1</v>
@@ -57375,7 +57429,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F967" t="b">
         <v>1</v>
@@ -58142,7 +58196,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F980" t="b">
         <v>1</v>
@@ -60797,7 +60851,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F1025" t="b">
         <v>1</v>
@@ -63688,7 +63742,7 @@
         </is>
       </c>
       <c r="E1074" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F1074" t="b">
         <v>1</v>
@@ -64750,7 +64804,7 @@
         </is>
       </c>
       <c r="E1092" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F1092" t="b">
         <v>1</v>
@@ -66986,7 +67040,7 @@
         </is>
       </c>
       <c r="E1130" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F1130" t="b">
         <v>1</v>
@@ -68396,10 +68450,16 @@
       <c r="C1154" t="n">
         <v>57</v>
       </c>
-      <c r="D1154" t="inlineStr"/>
-      <c r="E1154" t="inlineStr"/>
+      <c r="D1154" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="E1154" t="n">
+        <v>95</v>
+      </c>
       <c r="F1154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1154" t="inlineStr">
         <is>
